--- a/scripts/vintages/base2000IAE3.xlsx
+++ b/scripts/vintages/base2000IAE3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daiane.mattos\Dropbox\Tiago\ArtigoBR\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago.martins\Dropbox\Tiago\ArtigoBR\scripts\vintages\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="441">
   <si>
     <t>serie1</t>
   </si>
@@ -1521,6 +1521,18 @@
   <si>
     <t>IAE</t>
   </si>
+  <si>
+    <t>IAEIMP</t>
+  </si>
+  <si>
+    <t>IAESERV</t>
+  </si>
+  <si>
+    <t>IAEIND</t>
+  </si>
+  <si>
+    <t>IAEAGRO</t>
+  </si>
 </sst>
 </file>
 
@@ -1990,8 +2002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EC219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DK1" workbookViewId="0">
-      <selection activeCell="EB1" sqref="EB1:EB1048576"/>
+    <sheetView tabSelected="1" topLeftCell="DN1" workbookViewId="0">
+      <selection activeCell="DY2" sqref="DY2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2400,16 +2412,16 @@
         <v>426</v>
       </c>
       <c r="DY1" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="DZ1" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="EA1" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="EB1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="EC1" t="s">
         <v>436</v>
